--- a/src/main/java/com/amt/testData/QuoteSave.xlsx
+++ b/src/main/java/com/amt/testData/QuoteSave.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="368">
   <si>
     <t xml:space="preserve">Quote Ref No</t>
   </si>
@@ -1131,6 +1131,12 @@
   </si>
   <si>
     <t>QNK33052</t>
+  </si>
+  <si>
+    <t>OEX93501</t>
+  </si>
+  <si>
+    <t>EZQ70351</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +2059,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2415,7 +2421,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
